--- a/data/trans_dic/P16A07-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P16A07-Clase-trans_dic.xlsx
@@ -543,7 +543,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha consumido antidepresivos en las dos últimas semanas (tasa de respuesta: 99,9%)</t>
+          <t>Población que ha consumido medicamentos antidepresivos en las dos últimas semanas (tasa de respuesta: 99,9%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -1665,7 +1665,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha consumido antidepresivos en las dos últimas semanas (tasa de respuesta: 99,9%)</t>
+          <t>Población que ha consumido medicamentos antidepresivos en las dos últimas semanas (tasa de respuesta: 99,9%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_dic/P16A07-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P16A07-Clase-trans_dic.xlsx
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.002187207487158446</v>
+        <v>0.002167415530768271</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.01097588308327492</v>
+        <v>0.00943337151768131</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.004439565771468834</v>
+        <v>0.002444762864358374</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.01483480814898376</v>
+        <v>0.01463339147413756</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.02031077685716326</v>
+        <v>0.01839724280463638</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.009473992158608628</v>
+        <v>0.01174026140026167</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.0210108287246358</v>
+        <v>0.02091087440825172</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.03016659825787065</v>
+        <v>0.03089843916109338</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.01079045135671107</v>
+        <v>0.01155727522200926</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.01444922558241759</v>
+        <v>0.0134298106741973</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.01467161342178329</v>
+        <v>0.01442674249902232</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.02521254687658294</v>
+        <v>0.02527319533701866</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.01913035679480391</v>
+        <v>0.01888667596911826</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.04525161008822783</v>
+        <v>0.04258812545235216</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.02540263354299984</v>
+        <v>0.02536754331718838</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.04240608621182997</v>
+        <v>0.04392572207669986</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.06723460700406017</v>
+        <v>0.06444431895090866</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.04978547141791807</v>
+        <v>0.05461836215844792</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.06895124400145324</v>
+        <v>0.06708037302273023</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.0614181445711663</v>
+        <v>0.06545055510768551</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.03061425683031874</v>
+        <v>0.03105343845098308</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.04009676689241192</v>
+        <v>0.03942942590194857</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.03726204157808612</v>
+        <v>0.03767092970675412</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.04676175295018614</v>
+        <v>0.04641268540912478</v>
       </c>
     </row>
     <row r="7">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.005545042585995587</v>
+        <v>0.005695818656109995</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.01260296711255247</v>
+        <v>0.01486119889764902</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.005078149712680256</v>
+        <v>0.005005699656434305</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.01531968870687131</v>
+        <v>0.01611239823212646</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.0418329412739558</v>
+        <v>0.04149671153256022</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.0235495554866565</v>
+        <v>0.02256461436160211</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.0150729338084719</v>
+        <v>0.01593470287824377</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.04191952056359328</v>
+        <v>0.04161316642705963</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.02643754520660941</v>
+        <v>0.02671404107100162</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.02201861460663486</v>
+        <v>0.02178279299221721</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.01214998709509213</v>
+        <v>0.01210565715209753</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.0309368600285595</v>
+        <v>0.03163749760345048</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.03302779404746739</v>
+        <v>0.03348882172135722</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.05541492554147312</v>
+        <v>0.05988618852309142</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.02808247164342602</v>
+        <v>0.03082569581312037</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.04682499581199792</v>
+        <v>0.0467655642698615</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.09159540992303543</v>
+        <v>0.09247981846371246</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.0697017767486615</v>
+        <v>0.06822231627133689</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.05727730920465886</v>
+        <v>0.05311391719329433</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.0797786452924699</v>
+        <v>0.07911018314099494</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.05654512466390725</v>
+        <v>0.05619266602683419</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.05371907929876453</v>
+        <v>0.05318366183183953</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.03485569750885239</v>
+        <v>0.03550154313502533</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.05510825727860767</v>
+        <v>0.0540027543854597</v>
       </c>
     </row>
     <row r="10">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.01496711855068752</v>
+        <v>0.01375497787176515</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.02748573776662732</v>
+        <v>0.0271284508195956</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.01803268628961225</v>
+        <v>0.01653364612692283</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.02817983974950012</v>
+        <v>0.02825570923625974</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.03913123668987159</v>
+        <v>0.03976015707158648</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.06870726615060313</v>
+        <v>0.06691617617850894</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.06519671067314434</v>
+        <v>0.06541288106295924</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.05794569995222807</v>
+        <v>0.06128281665213588</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.02471036023593043</v>
+        <v>0.02434497816115799</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.04471670257191263</v>
+        <v>0.04338313203327403</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.0328871602580052</v>
+        <v>0.03224964013855288</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.04222339276934584</v>
+        <v>0.04274871292713946</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.04106565896423348</v>
+        <v>0.04309453273999054</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.06221146690895251</v>
+        <v>0.061216980610759</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.04915219455591378</v>
+        <v>0.04607270807669504</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.07044257539559644</v>
+        <v>0.07041581775866343</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.1236529565557228</v>
+        <v>0.1271346805306252</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.1425689775457736</v>
+        <v>0.138979430184584</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.1642781979649292</v>
+        <v>0.166498023553693</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.1208719837275075</v>
+        <v>0.1243537762708837</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.05275878036287308</v>
+        <v>0.05375704965213799</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.07871453390293331</v>
+        <v>0.07598917476071475</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.06923308085408973</v>
+        <v>0.06677224846376202</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.07539060574096144</v>
+        <v>0.07660423872192539</v>
       </c>
     </row>
     <row r="13">
@@ -1093,7 +1093,7 @@
         <v>0.05253791712187211</v>
       </c>
       <c r="J13" s="5" t="n">
-        <v>0.08012540390655638</v>
+        <v>0.08012540390655637</v>
       </c>
       <c r="K13" s="5" t="n">
         <v>0.03565089754932665</v>
@@ -1105,7 +1105,7 @@
         <v>0.03657705911751929</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0.05595159329011224</v>
+        <v>0.05595159329011225</v>
       </c>
     </row>
     <row r="14">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.01376476773457723</v>
+        <v>0.01305912815909224</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.02627186991892739</v>
+        <v>0.02636437695609213</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.01727097339447466</v>
+        <v>0.01709330961247349</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.02811766010226749</v>
+        <v>0.02751200918678931</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.04534123146427275</v>
+        <v>0.04626746685642818</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.05687687060825803</v>
+        <v>0.05802960897991392</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.039067532902833</v>
+        <v>0.03833753500307748</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.06541912590487077</v>
+        <v>0.0660555198565526</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.02835593075780867</v>
+        <v>0.02829907191938796</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.04314894648265621</v>
+        <v>0.04262746383245358</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.02858242511015654</v>
+        <v>0.02768416720902469</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.04785748052260781</v>
+        <v>0.04692446490171234</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.02929464026573285</v>
+        <v>0.02951205845395228</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.04966958846242077</v>
+        <v>0.04911028063685569</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.0362116677151114</v>
+        <v>0.0370866927418704</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.0501390309642492</v>
+        <v>0.04993459234773765</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.0807206953275751</v>
+        <v>0.08303027296367424</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.09674309506215488</v>
+        <v>0.09752021730283128</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.0711588436748801</v>
+        <v>0.07008079798411321</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.09540488825676577</v>
+        <v>0.09571315764996735</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.04474211950913013</v>
+        <v>0.0449409951084075</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.06503101419472322</v>
+        <v>0.06380231834705863</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.046014548016903</v>
+        <v>0.04565722497611913</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.06571858004693834</v>
+        <v>0.06588420210476123</v>
       </c>
     </row>
     <row r="16">
@@ -1241,7 +1241,7 @@
         <v>0.07326501343384718</v>
       </c>
       <c r="N16" s="5" t="n">
-        <v>0.07537214830148445</v>
+        <v>0.07537214830148443</v>
       </c>
     </row>
     <row r="17">
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.01929985842677585</v>
+        <v>0.01946932571442707</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.01383462472298787</v>
+        <v>0.0137322513451174</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.01682331504773471</v>
+        <v>0.01690496199978567</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.0239367617150623</v>
+        <v>0.02325708868412544</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.0599068633434467</v>
+        <v>0.06057049072447404</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.1020951121446065</v>
+        <v>0.101364550415916</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.08749306887345179</v>
+        <v>0.08955943854749718</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.08698773471350864</v>
+        <v>0.08691413438513371</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.04795867882528853</v>
+        <v>0.04929871184521191</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.06850498829395624</v>
+        <v>0.07044342988713576</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.06067610219108382</v>
+        <v>0.05966995959090756</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.0640991101267353</v>
+        <v>0.06508216191791438</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.06007697707448351</v>
+        <v>0.05924871130482073</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.04254895966409553</v>
+        <v>0.04201925932316258</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.04084951253675564</v>
+        <v>0.04302379906901794</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.05638474241519732</v>
+        <v>0.05531834148634406</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.1061633736516623</v>
+        <v>0.1060783789267761</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.1479307105049495</v>
+        <v>0.1487297288463036</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.1374064618730852</v>
+        <v>0.1366877787676374</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.1196540180859477</v>
+        <v>0.1193095391882308</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.08046196337616404</v>
+        <v>0.08074125494211515</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.09937153455709066</v>
+        <v>0.1009381609880642</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.08787805115476381</v>
+        <v>0.08871288716875671</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.08786917112397515</v>
+        <v>0.08916412901717219</v>
       </c>
     </row>
     <row r="19">
@@ -1365,7 +1365,7 @@
         <v>0.0767394139099732</v>
       </c>
       <c r="J19" s="5" t="n">
-        <v>0.07615633758660674</v>
+        <v>0.07615633758660673</v>
       </c>
       <c r="K19" s="5" t="n">
         <v>0.05792912181576047</v>
@@ -1377,7 +1377,7 @@
         <v>0.06295640821787424</v>
       </c>
       <c r="N19" s="5" t="n">
-        <v>0.06535721591765574</v>
+        <v>0.06535721591765571</v>
       </c>
     </row>
     <row r="20">
@@ -1388,40 +1388,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.01516662050616917</v>
+        <v>0.01549602568030899</v>
       </c>
       <c r="D20" s="5" t="n">
         <v>0</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.003297782659280011</v>
+        <v>0.003306624098322718</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.009346041936963215</v>
+        <v>0.01011672417431288</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.05174657542547457</v>
+        <v>0.05063856153109271</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.07205621528021437</v>
+        <v>0.0684563731612986</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.05953615503971383</v>
+        <v>0.06073805389274519</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.06065070999441075</v>
+        <v>0.06328379917707216</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.0472370072310592</v>
+        <v>0.04747269586959479</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.05752938827192258</v>
+        <v>0.05639403270388763</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.04995491562599327</v>
+        <v>0.05053821061335375</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.05337947740002768</v>
+        <v>0.05305216350329512</v>
       </c>
     </row>
     <row r="21">
@@ -1432,40 +1432,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.05956736828842336</v>
+        <v>0.05822338602754254</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.01846099273320497</v>
+        <v>0.0206473834056722</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.02953555135946355</v>
+        <v>0.02942007399636436</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.06409214832356429</v>
+        <v>0.06330968348752171</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.07865129719573838</v>
+        <v>0.07923342019938662</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.1064187001338579</v>
+        <v>0.1043989152526038</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.09542683270174789</v>
+        <v>0.09589034125272301</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.09229643329345287</v>
+        <v>0.09505272298210217</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.07141630887030827</v>
+        <v>0.07120630610907727</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.08582700121835858</v>
+        <v>0.08583619754570536</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.07784412087536065</v>
+        <v>0.07710936819120501</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.07990532858456222</v>
+        <v>0.07975412838990291</v>
       </c>
     </row>
     <row r="22">
@@ -1513,7 +1513,7 @@
         <v>0.04711338475292554</v>
       </c>
       <c r="N22" s="5" t="n">
-        <v>0.05644935586456914</v>
+        <v>0.05644935586456915</v>
       </c>
     </row>
     <row r="23">
@@ -1524,40 +1524,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.01657488542320897</v>
+        <v>0.01683786256720318</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.02521335757529582</v>
+        <v>0.02510741265606815</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.01784388296864404</v>
+        <v>0.01765551071023422</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.02919572896014715</v>
+        <v>0.02913434039108641</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.0566424619178953</v>
+        <v>0.0566290129317303</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.07431498716755078</v>
+        <v>0.07410534901002705</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.06259850488167878</v>
+        <v>0.06241492538863554</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.06899006778310018</v>
+        <v>0.07024809098735632</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.03879722028227068</v>
+        <v>0.03886357166587941</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.05200676914944766</v>
+        <v>0.0522772415740408</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.04234326603819037</v>
+        <v>0.04152633412819819</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.05214832736138846</v>
+        <v>0.05192007603628426</v>
       </c>
     </row>
     <row r="24">
@@ -1568,40 +1568,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.02653760585942121</v>
+        <v>0.02745192795613467</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.03793603509453467</v>
+        <v>0.03798258626133318</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.02746473742587531</v>
+        <v>0.02786673292206633</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.04120238525358337</v>
+        <v>0.04178720356426992</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.07420626123052541</v>
+        <v>0.07344546145123799</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.09314309209852216</v>
+        <v>0.09428229626411788</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.08076500279453813</v>
+        <v>0.08019190244555217</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.08344418736650136</v>
+        <v>0.08449000885591586</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.04852779271644566</v>
+        <v>0.04872183896603763</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.06338077670506542</v>
+        <v>0.06378177806814656</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.05248683813884943</v>
+        <v>0.05194234621425927</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.0614505965769454</v>
+        <v>0.0615129797552738</v>
       </c>
     </row>
     <row r="25">
@@ -1874,40 +1874,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>1036</v>
+        <v>1027</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>4799</v>
+        <v>4124</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>1905</v>
+        <v>1049</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>8168</v>
+        <v>8057</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>6229</v>
+        <v>5642</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>2979</v>
+        <v>3692</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>7292</v>
+        <v>7257</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>14734</v>
+        <v>15091</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>8421</v>
+        <v>9020</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>10861</v>
+        <v>10095</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>11387</v>
+        <v>11197</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>26197</v>
+        <v>26260</v>
       </c>
     </row>
     <row r="7">
@@ -1918,40 +1918,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>9064</v>
+        <v>8948</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>19785</v>
+        <v>18620</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>10900</v>
+        <v>10885</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>23350</v>
+        <v>24186</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>20620</v>
+        <v>19764</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>15655</v>
+        <v>17175</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>23930</v>
+        <v>23281</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>29997</v>
+        <v>31967</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>23893</v>
+        <v>24236</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>30139</v>
+        <v>29638</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>28921</v>
+        <v>29238</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>48587</v>
+        <v>48224</v>
       </c>
     </row>
     <row r="8">
@@ -2054,40 +2054,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>2035</v>
+        <v>2090</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>5256</v>
+        <v>6197</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>1916</v>
+        <v>1888</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>7403</v>
+        <v>7786</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>15556</v>
+        <v>15431</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>7937</v>
+        <v>7605</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>5611</v>
+        <v>5932</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>17738</v>
+        <v>17608</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>19532</v>
+        <v>19736</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>16603</v>
+        <v>16425</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>9106</v>
+        <v>9073</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>28040</v>
+        <v>28675</v>
       </c>
     </row>
     <row r="11">
@@ -2098,40 +2098,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>12119</v>
+        <v>12288</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>23109</v>
+        <v>24974</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>10593</v>
+        <v>11628</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>22626</v>
+        <v>22598</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>34061</v>
+        <v>34390</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>23492</v>
+        <v>22993</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>21323</v>
+        <v>19773</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>33758</v>
+        <v>33475</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>41775</v>
+        <v>41515</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>40507</v>
+        <v>40103</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>26124</v>
+        <v>26608</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>49948</v>
+        <v>48946</v>
       </c>
     </row>
     <row r="12">
@@ -2234,40 +2234,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>8118</v>
+        <v>7461</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>17215</v>
+        <v>16992</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>9412</v>
+        <v>8629</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>13290</v>
+        <v>13326</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>6566</v>
+        <v>6671</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>17722</v>
+        <v>17260</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>10831</v>
+        <v>10867</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>10865</v>
+        <v>11490</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>17549</v>
+        <v>17289</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>39542</v>
+        <v>38363</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>22628</v>
+        <v>22189</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>27830</v>
+        <v>28176</v>
       </c>
     </row>
     <row r="15">
@@ -2278,40 +2278,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>22274</v>
+        <v>23374</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>38965</v>
+        <v>38343</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>25653</v>
+        <v>24046</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>33222</v>
+        <v>33209</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>20747</v>
+        <v>21331</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>36774</v>
+        <v>35848</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>27290</v>
+        <v>27659</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>22663</v>
+        <v>23316</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>37468</v>
+        <v>38177</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>69605</v>
+        <v>67195</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>47635</v>
+        <v>45942</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>49691</v>
+        <v>50491</v>
       </c>
     </row>
     <row r="16">
@@ -2414,40 +2414,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>17045</v>
+        <v>16172</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>30405</v>
+        <v>30512</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>19855</v>
+        <v>19651</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>31825</v>
+        <v>31139</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>32387</v>
+        <v>33048</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>43605</v>
+        <v>44489</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>32265</v>
+        <v>31662</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>56279</v>
+        <v>56827</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>55368</v>
+        <v>55257</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>83017</v>
+        <v>82014</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>56465</v>
+        <v>54690</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>95338</v>
+        <v>93479</v>
       </c>
     </row>
     <row r="19">
@@ -2458,40 +2458,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>36277</v>
+        <v>36546</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>57483</v>
+        <v>56836</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>41630</v>
+        <v>42636</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>56750</v>
+        <v>56518</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>57658</v>
+        <v>59307</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>74169</v>
+        <v>74765</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>58768</v>
+        <v>57878</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>82075</v>
+        <v>82340</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>87364</v>
+        <v>87753</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>125118</v>
+        <v>122754</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>90902</v>
+        <v>90196</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>130920</v>
+        <v>131250</v>
       </c>
     </row>
     <row r="20">
@@ -2594,40 +2594,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>6746</v>
+        <v>6805</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>7050</v>
+        <v>6997</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>10442</v>
+        <v>10493</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>13560</v>
+        <v>13175</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>34072</v>
+        <v>34450</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>77521</v>
+        <v>76967</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>64591</v>
+        <v>66117</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>72211</v>
+        <v>72150</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>44040</v>
+        <v>45270</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>86923</v>
+        <v>89383</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>82456</v>
+        <v>81088</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>89521</v>
+        <v>90894</v>
       </c>
     </row>
     <row r="23">
@@ -2638,40 +2638,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>20999</v>
+        <v>20710</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>21681</v>
+        <v>21411</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>25356</v>
+        <v>26705</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>31941</v>
+        <v>31337</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>60381</v>
+        <v>60332</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>112325</v>
+        <v>112931</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>101439</v>
+        <v>100909</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>99328</v>
+        <v>99042</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>73887</v>
+        <v>74144</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>126089</v>
+        <v>128076</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>119422</v>
+        <v>120556</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>122719</v>
+        <v>124527</v>
       </c>
     </row>
     <row r="24">
@@ -2774,40 +2774,40 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>4523</v>
+        <v>4621</v>
       </c>
       <c r="D26" s="6" t="n">
         <v>0</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>947</v>
+        <v>949</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>2217</v>
+        <v>2400</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>64619</v>
+        <v>63235</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>79496</v>
+        <v>75524</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>64420</v>
+        <v>65720</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>51128</v>
+        <v>53348</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>73074</v>
+        <v>73438</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>78763</v>
+        <v>77208</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>68397</v>
+        <v>69195</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>57662</v>
+        <v>57308</v>
       </c>
     </row>
     <row r="27">
@@ -2818,40 +2818,40 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>17763</v>
+        <v>17362</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>4908</v>
+        <v>5489</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>8481</v>
+        <v>8448</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>15204</v>
+        <v>15019</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>98217</v>
+        <v>98944</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>117406</v>
+        <v>115177</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>103254</v>
+        <v>103756</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>77805</v>
+        <v>80129</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>110478</v>
+        <v>110153</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>117504</v>
+        <v>117517</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>106582</v>
+        <v>105576</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>86315</v>
+        <v>86152</v>
       </c>
     </row>
     <row r="28">
@@ -2954,40 +2954,40 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>54186</v>
+        <v>55046</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>86060</v>
+        <v>85699</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>60414</v>
+        <v>59777</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>100462</v>
+        <v>100251</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>191345</v>
+        <v>191300</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>262973</v>
+        <v>262231</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>221073</v>
+        <v>220424</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>250603</v>
+        <v>255173</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>257897</v>
+        <v>258338</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>361546</v>
+        <v>363427</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>292902</v>
+        <v>287251</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>368869</v>
+        <v>367254</v>
       </c>
     </row>
     <row r="31">
@@ -2998,40 +2998,40 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>86756</v>
+        <v>89745</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>129486</v>
+        <v>129645</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>92988</v>
+        <v>94349</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>141777</v>
+        <v>143789</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>250678</v>
+        <v>248108</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>329599</v>
+        <v>333630</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>285229</v>
+        <v>283205</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>303107</v>
+        <v>306906</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>322579</v>
+        <v>323868</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>440617</v>
+        <v>443405</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>363068</v>
+        <v>359302</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>434668</v>
+        <v>435109</v>
       </c>
     </row>
     <row r="32">
